--- a/Texts/Город Сокровищ/Все персонажи/Даскалл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Даскалл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -34,15 +34,34 @@
   </si>
   <si>
     <t>Конвертированная строка</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wish you the best of fortunes\non your expedition. Hee-hee!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/enter05.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Желаю вам всего самого\nнаилучшего в экспедиции. Хи-хи!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Çåìàý âàí âòåãï òàíïãï\nîàéìôœšåãï â üëòðåäéøéé. Öé-öé!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -93,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -103,6 +122,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,19 +409,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" customWidth="1"/>
-    <col min="4" max="4" width="43.77734375" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="43.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -416,6 +442,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4">
+        <v>336</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Даскалл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Даскалл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Çåìàý âàí âòåãï òàíïãï\nîàéìôœšåãï â üëòðåäéøéé. Öé-öé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ah, welcome back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The money earned on your\nexpedition... Please allow me to hoard it for\nyou in my bank.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А, с возвращением.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Те деньги, что получены в\nэкспедиции... Позволь мне хранить их в\nмоём банке.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À, ò âïèâñàþåîéåí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óå äåîûãé, œóï ðïìôœåîú â\nüëòðåäéøéé... Ðïèâïìû íîå öñàîéóû éö â\níïæí áàîëå.</t>
   </si>
 </sst>
 </file>
@@ -76,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -108,11 +126,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -127,6 +156,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -409,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,20 +478,48 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>336</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>295</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>298</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Даскалл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Даскалл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Óå äåîûãé, œóï ðïìôœåîú â\nüëòðåäéøéé... Ðïèâïìû íîå öñàîéóû éö â\níïæí áàîëå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Startling, isn\'t it?[K] Visitations of\nPokémon from a distant future…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поразительно, правда?[K] Покемоны,\nприбывшие из далёкого будущего...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïñàèéóåìûîï, ðñàâäà?[K] Ðïëåíïîú,\nðñéáúâšéå éè äàìæëïãï áôäôþåãï…</t>
   </si>
 </sst>
 </file>
@@ -94,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -137,11 +146,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -162,6 +180,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -444,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,17 +533,32 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8">
         <v>298</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>257</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Даскалл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Даскалл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -73,6 +73,33 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðïñàèéóåìûîï, ðñàâäà?[K] Ðïëåíïîú,\nðñéáúâšéå éè äàìæëïãï áôäôþåãï…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good to see you with us...[K]\nYour absence kept me from resting in peace…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Рад снова вас видеть...[K] Я не\nнаходил себе покоя из-за вашего\nотсутствия...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñàä òîïâà âàò âéäåóû...[K] Ÿ îå\nîàöïäéì òåáå ðïëïÿ éè-èà âàšåãï\nïóòôóòóâéÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My thoughts go with you…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please, put an end to the planet\'s\nparalysis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мои мысли только о вас...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прошу, положите конец\nпланетарному параличу.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïé íúòìé óïìûëï ï âàò...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïšô, ðïìïçéóå ëïîåø\nðìàîåóàñîïíô ðàñàìéœô.</t>
   </si>
 </sst>
 </file>
@@ -103,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -155,11 +182,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -186,6 +224,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -468,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,17 +592,61 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10">
         <v>257</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="11" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10">
+        <v>219</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>178</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>181</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Даскалл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Даскалл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -100,6 +100,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðñïšô, ðïìïçéóå ëïîåø\nðìàîåóàñîïíô ðàñàìéœô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I congratulate you on your guild\ngraduation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I do hope you continue to rake in\nmoney...[K]and allow me to hoard it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поздравляю вас с выпуском из\nгильдии.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Надеюсь, вы будете и дальше\nнести сюда деньги...[K] И позволите мне их\nхранить!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïèäñàâìÿý âàò ò âúðôòëïí éè\nãéìûäéé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàäåýòû, âú áôäåóå é äàìûšå\nîåòóé òýäà äåîûãé...[K] É ðïèâïìéóå íîå éö\nöñàîéóû!</t>
   </si>
 </sst>
 </file>
@@ -512,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,17 +654,47 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8">
         <v>181</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>137</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8">
+        <v>140</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Даскалл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Даскалл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -118,6 +118,69 @@
   </si>
   <si>
     <t xml:space="preserve"> Îàäåýòû, âú áôäåóå é äàìûšå\nîåòóé òýäà äåîûãé...[K] É ðïèâïìéóå íîå éö\nöñàîéóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whooooo! I wish to see them!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What I would give for a mere\nglimpse of the members of Team [CS:X]Charm[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Will you be offended if I left to\nlook at them right now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...But that would certainly result\nin me being reprimanded…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Оооооо! Я хочу на них посмотреть!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я бы отдал всё, чтобы только\nодним глазком взглянуть на членов Команды\n[CS:X]Шарм[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ничего если я отойду посмотреть\nна них?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Но это непременно приведёт к\nнеприятным последствиям...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïïïïïï! Ÿ öïœô îà îéö ðïòíïóñåóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ áú ïóäàì âòæ, œóïáú óïìûëï\nïäîéí ãìàèëïí âèãìÿîôóû îà œìåîïâ Ëïíàîäú\n[CS:X]Šàñí[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îéœåãï åòìé ÿ ïóïêäô ðïòíïóñåóû\nîà îéö?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Îï üóï îåðñåíåîîï ðñéâåäæó ë\nîåðñéÿóîúí ðïòìåäòóâéÿí...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Best of luck! Do take care!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thank you so much,\n[hero] and [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This gives me the peace of mind\nto run the bank properly!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Желаю удачи! Берегите себя!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо вам огромнейшее,\n[hero] и [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Теперь я могу с чистым разумом\nуправлять банком!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Çåìàý ôäàœé! Áåñåãéóå òåáÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï âàí ïãñïíîåêšåå,\n[hero] é [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óåðåñû ÿ íïãô ò œéòóúí ñàèôíïí\nôðñàâìÿóû áàîëïí!</t>
   </si>
 </sst>
 </file>
@@ -530,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,6 +760,106 @@
         <v>32</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>104</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>107</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>110</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8">
+        <v>113</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10">
+        <v>52</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
